--- a/02_datos_crudos/02_07_tasa_suicidios/INEGI_exporta_tasa_defunciones_suicidio.xlsx
+++ b/02_datos_crudos/02_07_tasa_suicidios/INEGI_exporta_tasa_defunciones_suicidio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sam/Documents/GitHub/mcv_ips_private/02_datos_crudos/02_07_tasa_suicidios/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/axel/Documents/GitHub/mcv_ips_private/02_datos_crudos/02_07_tasa_suicidios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77F025E4-3412-FA45-BA52-DE18BE1ECC38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E00141-E380-8543-961A-02C7DD43C98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="740" windowWidth="28000" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabulado" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
   <si>
     <t>Instituto Nacional de Estadística y Geografía (INEGI)</t>
   </si>
   <si>
-    <t>Defunciones registradas por suicidio por entidad federativa y causa según sexo, serie anual de 2010 a 2022</t>
+    <t>Defunciones registradas por suicidio por entidad federativa y causa según sexo, serie anual de 2010 a 2023</t>
+  </si>
+  <si>
+    <t>Fecha de consulta: 08/11/2024 17:22:08</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Defunciones registradas</t>
@@ -176,13 +182,49 @@
   </si>
   <si>
     <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>Notas:</t>
+  </si>
+  <si>
+    <t>Defunciones registradas por entidad federativa de residencia habitual de la persona fallecida.</t>
+  </si>
+  <si>
+    <t>La información corresponde a los suicidios registrados y clasificados con base en la Clasificación Internacional de Enfermedades (CIE) 10, Lesiones autoinfligidas intencionalmente (X60-X84).</t>
+  </si>
+  <si>
+    <t>Disparo de arma de fuego, comprende: arma corta y larga, rifle, escopeta y otras armas de fuego.</t>
+  </si>
+  <si>
+    <t>Envenenamiento, comprende: drogas antiepilépticas, sedantes, hipnóticas, antiparkinsonianas y psicotrópicas; narcóticos y psicodislépticos (alucinógenos); otras drogas, medicamentos y sustancias biológicas; alcohol; disolventes orgánicos e hidrocarburos halogenados y sus vapores; otros gases y vapores; plaguicidas; y otros productos químicos y sustancias nocivas.</t>
+  </si>
+  <si>
+    <t>Otras causas, comprende: ahogamiento y sumersión; humo, fuego y llamas; objeto cortante; saltar desde un lugar elevado; arrojarse o colocarse delante de objeto en movimiento; colisión de vehículo de motor; otros medios especificados; y medios no especificados.</t>
+  </si>
+  <si>
+    <t>Los datos de 2023 son preliminares, debido a que aún no concluyen los procesos de generación de los datos definitivos, particularmente la confronta con la Secretaría de Salud.</t>
+  </si>
+  <si>
+    <t>Fuente:</t>
+  </si>
+  <si>
+    <t>INEGI. Estadísticas de defunciones registradas.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="###,###,###,###,##0"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -194,12 +236,18 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -260,31 +308,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -305,7 +354,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -315,39 +364,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -399,7 +448,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -510,13 +559,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -525,6 +567,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -589,11 +638,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -601,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK35"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -628,565 +697,345 @@
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="R7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="T7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="X7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="28" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AJ5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="AK5" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" ht="28" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="G8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="J8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="N8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="6" t="s">
+      <c r="O8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="6" t="s">
+      <c r="P8" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T6" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="S8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="6" t="s">
+      <c r="T8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="W6" s="6" t="s">
+      <c r="U8" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="X6" s="6" t="s">
+      <c r="V8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="6" t="s">
+      <c r="W8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Z6" s="6" t="s">
+      <c r="X8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AA6" s="6" t="s">
+      <c r="Y8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="6" t="s">
+      <c r="Z8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AA8" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="AD6" s="6" t="s">
+      <c r="AB8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AE6" s="6" t="s">
+      <c r="AC8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AF6" s="6" t="s">
+      <c r="AD8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AG6" s="6" t="s">
+      <c r="AE8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AF8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AI6" s="6" t="s">
+      <c r="AG8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AH8" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AK6" s="6" t="s">
+      <c r="AI8" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="AJ8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="7">
-        <v>5012</v>
-      </c>
-      <c r="D7" s="7">
-        <v>50</v>
-      </c>
-      <c r="E7" s="7">
-        <v>107</v>
-      </c>
-      <c r="F7" s="7">
-        <v>45</v>
-      </c>
-      <c r="G7" s="7">
-        <v>62</v>
-      </c>
-      <c r="H7" s="7">
-        <v>169</v>
-      </c>
-      <c r="I7" s="7">
-        <v>31</v>
-      </c>
-      <c r="J7" s="7">
-        <v>88</v>
-      </c>
-      <c r="K7" s="7">
-        <v>234</v>
-      </c>
-      <c r="L7" s="7">
-        <v>375</v>
-      </c>
-      <c r="M7" s="7">
-        <v>94</v>
-      </c>
-      <c r="N7" s="7">
-        <v>283</v>
-      </c>
-      <c r="O7" s="7">
-        <v>91</v>
-      </c>
-      <c r="P7" s="7">
-        <v>56</v>
-      </c>
-      <c r="Q7" s="7">
-        <v>399</v>
-      </c>
-      <c r="R7" s="7">
-        <v>537</v>
-      </c>
-      <c r="S7" s="7">
-        <v>151</v>
-      </c>
-      <c r="T7" s="7">
-        <v>45</v>
-      </c>
-      <c r="U7" s="7">
-        <v>46</v>
-      </c>
-      <c r="V7" s="7">
-        <v>238</v>
-      </c>
-      <c r="W7" s="7">
-        <v>131</v>
-      </c>
-      <c r="X7" s="7">
-        <v>205</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>85</v>
-      </c>
-      <c r="Z7" s="7">
-        <v>132</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>164</v>
-      </c>
-      <c r="AB7" s="7">
-        <v>113</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>170</v>
-      </c>
-      <c r="AD7" s="7">
-        <v>187</v>
-      </c>
-      <c r="AE7" s="7">
-        <v>166</v>
-      </c>
-      <c r="AF7" s="7">
-        <v>33</v>
-      </c>
-      <c r="AG7" s="7">
-        <v>262</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>206</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>51</v>
-      </c>
-      <c r="AJ7" s="7">
-        <v>6</v>
-      </c>
-      <c r="AK7" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="AK8" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="8">
-        <v>5718</v>
-      </c>
-      <c r="D8" s="8">
-        <v>98</v>
-      </c>
-      <c r="E8" s="8">
-        <v>149</v>
-      </c>
-      <c r="F8" s="8">
-        <v>30</v>
-      </c>
-      <c r="G8" s="8">
-        <v>81</v>
-      </c>
-      <c r="H8" s="8">
-        <v>169</v>
-      </c>
-      <c r="I8" s="8">
-        <v>48</v>
-      </c>
-      <c r="J8" s="8">
-        <v>230</v>
-      </c>
-      <c r="K8" s="8">
-        <v>289</v>
-      </c>
-      <c r="L8" s="8">
-        <v>413</v>
-      </c>
-      <c r="M8" s="8">
-        <v>86</v>
-      </c>
-      <c r="N8" s="8">
-        <v>358</v>
-      </c>
-      <c r="O8" s="8">
-        <v>90</v>
-      </c>
-      <c r="P8" s="8">
-        <v>113</v>
-      </c>
-      <c r="Q8" s="8">
-        <v>453</v>
-      </c>
-      <c r="R8" s="8">
-        <v>600</v>
-      </c>
-      <c r="S8" s="8">
-        <v>150</v>
-      </c>
-      <c r="T8" s="8">
-        <v>61</v>
-      </c>
-      <c r="U8" s="8">
-        <v>46</v>
-      </c>
-      <c r="V8" s="8">
-        <v>218</v>
-      </c>
-      <c r="W8" s="8">
-        <v>142</v>
-      </c>
-      <c r="X8" s="8">
-        <v>256</v>
-      </c>
-      <c r="Y8" s="8">
-        <v>98</v>
-      </c>
-      <c r="Z8" s="8">
-        <v>121</v>
-      </c>
-      <c r="AA8" s="8">
-        <v>159</v>
-      </c>
-      <c r="AB8" s="8">
-        <v>111</v>
-      </c>
-      <c r="AC8" s="8">
-        <v>178</v>
-      </c>
-      <c r="AD8" s="8">
-        <v>188</v>
-      </c>
-      <c r="AE8" s="8">
-        <v>149</v>
-      </c>
-      <c r="AF8" s="8">
-        <v>51</v>
-      </c>
-      <c r="AG8" s="8">
-        <v>309</v>
-      </c>
-      <c r="AH8" s="8">
-        <v>186</v>
-      </c>
-      <c r="AI8" s="8">
-        <v>82</v>
-      </c>
-      <c r="AJ8" s="8">
-        <v>6</v>
-      </c>
-      <c r="AK8" s="8">
-        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="7">
-        <v>5549</v>
+        <v>5012</v>
       </c>
       <c r="D9" s="7">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="E9" s="7">
+        <v>107</v>
+      </c>
+      <c r="F9" s="7">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7">
+        <v>62</v>
+      </c>
+      <c r="H9" s="7">
+        <v>169</v>
+      </c>
+      <c r="I9" s="7">
+        <v>31</v>
+      </c>
+      <c r="J9" s="7">
+        <v>88</v>
+      </c>
+      <c r="K9" s="7">
+        <v>234</v>
+      </c>
+      <c r="L9" s="7">
+        <v>375</v>
+      </c>
+      <c r="M9" s="7">
+        <v>94</v>
+      </c>
+      <c r="N9" s="7">
+        <v>283</v>
+      </c>
+      <c r="O9" s="7">
+        <v>91</v>
+      </c>
+      <c r="P9" s="7">
+        <v>56</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>399</v>
+      </c>
+      <c r="R9" s="7">
+        <v>537</v>
+      </c>
+      <c r="S9" s="7">
+        <v>151</v>
+      </c>
+      <c r="T9" s="7">
+        <v>45</v>
+      </c>
+      <c r="U9" s="7">
+        <v>46</v>
+      </c>
+      <c r="V9" s="7">
+        <v>238</v>
+      </c>
+      <c r="W9" s="7">
+        <v>131</v>
+      </c>
+      <c r="X9" s="7">
+        <v>205</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>85</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>132</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>164</v>
+      </c>
+      <c r="AB9" s="7">
         <v>113</v>
       </c>
-      <c r="F9" s="7">
-        <v>44</v>
-      </c>
-      <c r="G9" s="7">
-        <v>63</v>
-      </c>
-      <c r="H9" s="7">
-        <v>150</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46</v>
-      </c>
-      <c r="J9" s="7">
-        <v>189</v>
-      </c>
-      <c r="K9" s="7">
-        <v>266</v>
-      </c>
-      <c r="L9" s="7">
-        <v>426</v>
-      </c>
-      <c r="M9" s="7">
-        <v>76</v>
-      </c>
-      <c r="N9" s="7">
-        <v>338</v>
-      </c>
-      <c r="O9" s="7">
-        <v>90</v>
-      </c>
-      <c r="P9" s="7">
-        <v>102</v>
-      </c>
-      <c r="Q9" s="7">
-        <v>507</v>
-      </c>
-      <c r="R9" s="7">
-        <v>598</v>
-      </c>
-      <c r="S9" s="7">
-        <v>147</v>
-      </c>
-      <c r="T9" s="7">
-        <v>62</v>
-      </c>
-      <c r="U9" s="7">
-        <v>50</v>
-      </c>
-      <c r="V9" s="7">
-        <v>229</v>
-      </c>
-      <c r="W9" s="7">
-        <v>124</v>
-      </c>
-      <c r="X9" s="7">
-        <v>216</v>
-      </c>
-      <c r="Y9" s="7">
-        <v>115</v>
-      </c>
-      <c r="Z9" s="7">
-        <v>144</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>158</v>
-      </c>
-      <c r="AB9" s="7">
-        <v>99</v>
-      </c>
       <c r="AC9" s="7">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="AD9" s="7">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="AE9" s="7">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AF9" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="AG9" s="7">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="AH9" s="7">
-        <v>160</v>
+        <v>206</v>
       </c>
       <c r="AI9" s="7">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AJ9" s="7">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AK9" s="7">
         <v>0</v>
@@ -1194,112 +1043,112 @@
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="C10" s="8">
-        <v>5909</v>
+        <v>5718</v>
       </c>
       <c r="D10" s="8">
+        <v>98</v>
+      </c>
+      <c r="E10" s="8">
+        <v>149</v>
+      </c>
+      <c r="F10" s="8">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8">
+        <v>81</v>
+      </c>
+      <c r="H10" s="8">
+        <v>169</v>
+      </c>
+      <c r="I10" s="8">
+        <v>48</v>
+      </c>
+      <c r="J10" s="8">
+        <v>230</v>
+      </c>
+      <c r="K10" s="8">
+        <v>289</v>
+      </c>
+      <c r="L10" s="8">
+        <v>413</v>
+      </c>
+      <c r="M10" s="8">
+        <v>86</v>
+      </c>
+      <c r="N10" s="8">
+        <v>358</v>
+      </c>
+      <c r="O10" s="8">
+        <v>90</v>
+      </c>
+      <c r="P10" s="8">
         <v>113</v>
       </c>
-      <c r="E10" s="8">
-        <v>123</v>
-      </c>
-      <c r="F10" s="8">
-        <v>50</v>
-      </c>
-      <c r="G10" s="8">
-        <v>77</v>
-      </c>
-      <c r="H10" s="8">
-        <v>174</v>
-      </c>
-      <c r="I10" s="8">
-        <v>52</v>
-      </c>
-      <c r="J10" s="8">
-        <v>315</v>
-      </c>
-      <c r="K10" s="8">
-        <v>310</v>
-      </c>
-      <c r="L10" s="8">
-        <v>425</v>
-      </c>
-      <c r="M10" s="8">
-        <v>90</v>
-      </c>
-      <c r="N10" s="8">
-        <v>351</v>
-      </c>
-      <c r="O10" s="8">
-        <v>104</v>
-      </c>
-      <c r="P10" s="8">
-        <v>112</v>
-      </c>
       <c r="Q10" s="8">
-        <v>481</v>
+        <v>453</v>
       </c>
       <c r="R10" s="8">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="S10" s="8">
+        <v>150</v>
+      </c>
+      <c r="T10" s="8">
+        <v>61</v>
+      </c>
+      <c r="U10" s="8">
+        <v>46</v>
+      </c>
+      <c r="V10" s="8">
+        <v>218</v>
+      </c>
+      <c r="W10" s="8">
         <v>142</v>
       </c>
-      <c r="T10" s="8">
-        <v>65</v>
-      </c>
-      <c r="U10" s="8">
-        <v>54</v>
-      </c>
-      <c r="V10" s="8">
-        <v>245</v>
-      </c>
-      <c r="W10" s="8">
+      <c r="X10" s="8">
+        <v>256</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>98</v>
+      </c>
+      <c r="Z10" s="8">
         <v>121</v>
       </c>
-      <c r="X10" s="8">
-        <v>240</v>
-      </c>
-      <c r="Y10" s="8">
-        <v>112</v>
-      </c>
-      <c r="Z10" s="8">
-        <v>137</v>
-      </c>
       <c r="AA10" s="8">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AB10" s="8">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="AC10" s="8">
-        <v>237</v>
+        <v>178</v>
       </c>
       <c r="AD10" s="8">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="AE10" s="8">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="AF10" s="8">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AG10" s="8">
-        <v>265</v>
+        <v>309</v>
       </c>
       <c r="AH10" s="8">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="AI10" s="8">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="AJ10" s="8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="AK10" s="8">
         <v>0</v>
@@ -1307,112 +1156,112 @@
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="7">
-        <v>6337</v>
+        <v>5549</v>
       </c>
       <c r="D11" s="7">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E11" s="7">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="F11" s="7">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="I11" s="7">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J11" s="7">
-        <v>321</v>
+        <v>189</v>
       </c>
       <c r="K11" s="7">
-        <v>326</v>
+        <v>266</v>
       </c>
       <c r="L11" s="7">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="M11" s="7">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="N11" s="7">
-        <v>422</v>
+        <v>338</v>
       </c>
       <c r="O11" s="7">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="P11" s="7">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="R11" s="7">
-        <v>670</v>
+        <v>598</v>
       </c>
       <c r="S11" s="7">
-        <v>192</v>
+        <v>147</v>
       </c>
       <c r="T11" s="7">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="U11" s="7">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="V11" s="7">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="W11" s="7">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="X11" s="7">
-        <v>277</v>
+        <v>216</v>
       </c>
       <c r="Y11" s="7">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Z11" s="7">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="AA11" s="7">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="AB11" s="7">
-        <v>143</v>
+        <v>99</v>
       </c>
       <c r="AC11" s="7">
-        <v>236</v>
+        <v>184</v>
       </c>
       <c r="AD11" s="7">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AE11" s="7">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AF11" s="7">
+        <v>44</v>
+      </c>
+      <c r="AG11" s="7">
+        <v>289</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>160</v>
+      </c>
+      <c r="AI11" s="7">
         <v>53</v>
       </c>
-      <c r="AG11" s="7">
-        <v>319</v>
-      </c>
-      <c r="AH11" s="7">
-        <v>181</v>
-      </c>
-      <c r="AI11" s="7">
-        <v>70</v>
-      </c>
       <c r="AJ11" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AK11" s="7">
         <v>0</v>
@@ -1420,112 +1269,112 @@
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="8">
-        <v>6425</v>
+        <v>5909</v>
       </c>
       <c r="D12" s="8">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="E12" s="8">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="F12" s="8">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="G12" s="8">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H12" s="8">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="I12" s="8">
+        <v>52</v>
+      </c>
+      <c r="J12" s="8">
+        <v>315</v>
+      </c>
+      <c r="K12" s="8">
+        <v>310</v>
+      </c>
+      <c r="L12" s="8">
+        <v>425</v>
+      </c>
+      <c r="M12" s="8">
+        <v>90</v>
+      </c>
+      <c r="N12" s="8">
+        <v>351</v>
+      </c>
+      <c r="O12" s="8">
+        <v>104</v>
+      </c>
+      <c r="P12" s="8">
+        <v>112</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>481</v>
+      </c>
+      <c r="R12" s="8">
+        <v>620</v>
+      </c>
+      <c r="S12" s="8">
+        <v>142</v>
+      </c>
+      <c r="T12" s="8">
+        <v>65</v>
+      </c>
+      <c r="U12" s="8">
         <v>54</v>
       </c>
-      <c r="J12" s="8">
-        <v>316</v>
-      </c>
-      <c r="K12" s="8">
-        <v>421</v>
-      </c>
-      <c r="L12" s="8">
-        <v>369</v>
-      </c>
-      <c r="M12" s="8">
-        <v>116</v>
-      </c>
-      <c r="N12" s="8">
-        <v>466</v>
-      </c>
-      <c r="O12" s="8">
-        <v>73</v>
-      </c>
-      <c r="P12" s="8">
-        <v>117</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>527</v>
-      </c>
-      <c r="R12" s="8">
-        <v>667</v>
-      </c>
-      <c r="S12" s="8">
-        <v>169</v>
-      </c>
-      <c r="T12" s="8">
-        <v>44</v>
-      </c>
-      <c r="U12" s="8">
-        <v>75</v>
-      </c>
       <c r="V12" s="8">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="W12" s="8">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="X12" s="8">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="Y12" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Z12" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AA12" s="8">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AB12" s="8">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="AC12" s="8">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="AD12" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AE12" s="8">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="AF12" s="8">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="AG12" s="8">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="AH12" s="8">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="AI12" s="8">
-        <v>103</v>
+        <v>62</v>
       </c>
       <c r="AJ12" s="8">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AK12" s="8">
         <v>0</v>
@@ -1533,112 +1382,112 @@
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C13" s="7">
-        <v>6370</v>
+        <v>6337</v>
       </c>
       <c r="D13" s="7">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E13" s="7">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G13" s="7">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I13" s="7">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="J13" s="7">
-        <v>272</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7">
-        <v>438</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7">
-        <v>377</v>
+        <v>434</v>
       </c>
       <c r="M13" s="7">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>459</v>
+        <v>422</v>
       </c>
       <c r="O13" s="7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="7">
-        <v>597</v>
+        <v>506</v>
       </c>
       <c r="R13" s="7">
-        <v>579</v>
+        <v>670</v>
       </c>
       <c r="S13" s="7">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="T13" s="7">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="U13" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="V13" s="7">
-        <v>292</v>
+        <v>220</v>
       </c>
       <c r="W13" s="7">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="X13" s="7">
-        <v>226</v>
+        <v>277</v>
       </c>
       <c r="Y13" s="7">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="Z13" s="7">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AA13" s="7">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AB13" s="7">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="AC13" s="7">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="AD13" s="7">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="AE13" s="7">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="AF13" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AG13" s="7">
-        <v>207</v>
+        <v>319</v>
       </c>
       <c r="AH13" s="7">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="AI13" s="7">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AJ13" s="7">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK13" s="7">
         <v>0</v>
@@ -1646,619 +1495,1095 @@
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C14" s="8">
-        <v>6559</v>
+        <v>6425</v>
       </c>
       <c r="D14" s="8">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E14" s="8">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="F14" s="8">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G14" s="8">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H14" s="8">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="I14" s="8">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="J14" s="8">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="K14" s="8">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="L14" s="8">
-        <v>302</v>
+        <v>369</v>
       </c>
       <c r="M14" s="8">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="N14" s="8">
-        <v>494</v>
+        <v>466</v>
       </c>
       <c r="O14" s="8">
         <v>73</v>
       </c>
       <c r="P14" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q14" s="8">
-        <v>658</v>
+        <v>527</v>
       </c>
       <c r="R14" s="8">
-        <v>570</v>
+        <v>667</v>
       </c>
       <c r="S14" s="8">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="T14" s="8">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="U14" s="8">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="V14" s="8">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="W14" s="8">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="X14" s="8">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="Y14" s="8">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="Z14" s="8">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="AA14" s="8">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="AB14" s="8">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="AC14" s="8">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="AD14" s="8">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="AE14" s="8">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AF14" s="8">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AG14" s="8">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="AH14" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AI14" s="8">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AJ14" s="8">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK14" s="8">
-        <v>77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
       <c r="C15" s="7">
-        <v>6808</v>
+        <v>6370</v>
       </c>
       <c r="D15" s="7">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="E15" s="7">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="F15" s="7">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G15" s="7">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7">
-        <v>216</v>
+        <v>171</v>
       </c>
       <c r="I15" s="7">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="J15" s="7">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="K15" s="7">
-        <v>365</v>
+        <v>438</v>
       </c>
       <c r="L15" s="7">
-        <v>227</v>
+        <v>377</v>
       </c>
       <c r="M15" s="7">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="N15" s="7">
-        <v>504</v>
+        <v>459</v>
       </c>
       <c r="O15" s="7">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="P15" s="7">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="Q15" s="7">
-        <v>630</v>
+        <v>597</v>
       </c>
       <c r="R15" s="7">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="S15" s="7">
-        <v>245</v>
+        <v>182</v>
       </c>
       <c r="T15" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U15" s="7">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="V15" s="7">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="W15" s="7">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="X15" s="7">
-        <v>319</v>
+        <v>226</v>
       </c>
       <c r="Y15" s="7">
-        <v>138</v>
+        <v>102</v>
       </c>
       <c r="Z15" s="7">
         <v>125</v>
       </c>
       <c r="AA15" s="7">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="AB15" s="7">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="AC15" s="7">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="AD15" s="7">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="AE15" s="7">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AF15" s="7">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AG15" s="7">
-        <v>253</v>
+        <v>207</v>
       </c>
       <c r="AH15" s="7">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="AI15" s="7">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AJ15" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AK15" s="7">
-        <v>328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>49</v>
       </c>
       <c r="C16" s="8">
-        <v>7223</v>
+        <v>6559</v>
       </c>
       <c r="D16" s="8">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="E16" s="8">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F16" s="8">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G16" s="8">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H16" s="8">
-        <v>261</v>
+        <v>201</v>
       </c>
       <c r="I16" s="8">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J16" s="8">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="K16" s="8">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="L16" s="8">
-        <v>234</v>
+        <v>302</v>
       </c>
       <c r="M16" s="8">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="N16" s="8">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O16" s="8">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P16" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q16" s="8">
-        <v>605</v>
+        <v>658</v>
       </c>
       <c r="R16" s="8">
-        <v>715</v>
+        <v>570</v>
       </c>
       <c r="S16" s="8">
-        <v>334</v>
+        <v>206</v>
       </c>
       <c r="T16" s="8">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="U16" s="8">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="V16" s="8">
-        <v>318</v>
+        <v>270</v>
       </c>
       <c r="W16" s="8">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="X16" s="8">
-        <v>345</v>
+        <v>302</v>
       </c>
       <c r="Y16" s="8">
-        <v>175</v>
+        <v>137</v>
       </c>
       <c r="Z16" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AA16" s="8">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="AB16" s="8">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="AC16" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AD16" s="8">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="AE16" s="8">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="AF16" s="8">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG16" s="8">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="AH16" s="8">
-        <v>245</v>
+        <v>191</v>
       </c>
       <c r="AI16" s="8">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="AJ16" s="8">
         <v>13</v>
       </c>
       <c r="AK16" s="8">
-        <v>178</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="7">
-        <v>7896</v>
+        <v>6808</v>
       </c>
       <c r="D17" s="7">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="E17" s="7">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="F17" s="7">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="G17" s="7">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="I17" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J17" s="7">
-        <v>203</v>
+        <v>147</v>
       </c>
       <c r="K17" s="7">
-        <v>541</v>
+        <v>365</v>
       </c>
       <c r="L17" s="7">
-        <v>450</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="N17" s="7">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="O17" s="7">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="P17" s="7">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="R17" s="7">
-        <v>832</v>
+        <v>584</v>
       </c>
       <c r="S17" s="7">
-        <v>375</v>
+        <v>245</v>
       </c>
       <c r="T17" s="7">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="U17" s="7">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="V17" s="7">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="W17" s="7">
-        <v>214</v>
+        <v>140</v>
       </c>
       <c r="X17" s="7">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="Y17" s="7">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="Z17" s="7">
-        <v>176</v>
+        <v>125</v>
       </c>
       <c r="AA17" s="7">
-        <v>258</v>
+        <v>204</v>
       </c>
       <c r="AB17" s="7">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="AC17" s="7">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="AD17" s="7">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="AE17" s="7">
         <v>164</v>
       </c>
       <c r="AF17" s="7">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="AG17" s="7">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="AH17" s="7">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AI17" s="7">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="AJ17" s="7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AK17" s="7">
-        <v>154</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C18" s="8">
+        <v>7223</v>
+      </c>
+      <c r="D18" s="8">
+        <v>157</v>
+      </c>
+      <c r="E18" s="8">
+        <v>169</v>
+      </c>
+      <c r="F18" s="8">
+        <v>59</v>
+      </c>
+      <c r="G18" s="8">
+        <v>95</v>
+      </c>
+      <c r="H18" s="8">
+        <v>261</v>
+      </c>
+      <c r="I18" s="8">
+        <v>39</v>
+      </c>
+      <c r="J18" s="8">
+        <v>200</v>
+      </c>
+      <c r="K18" s="8">
+        <v>400</v>
+      </c>
+      <c r="L18" s="8">
+        <v>234</v>
+      </c>
+      <c r="M18" s="8">
+        <v>127</v>
+      </c>
+      <c r="N18" s="8">
+        <v>493</v>
+      </c>
+      <c r="O18" s="8">
+        <v>77</v>
+      </c>
+      <c r="P18" s="8">
+        <v>117</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>605</v>
+      </c>
+      <c r="R18" s="8">
+        <v>715</v>
+      </c>
+      <c r="S18" s="8">
+        <v>334</v>
+      </c>
+      <c r="T18" s="8">
+        <v>90</v>
+      </c>
+      <c r="U18" s="8">
+        <v>77</v>
+      </c>
+      <c r="V18" s="8">
+        <v>318</v>
+      </c>
+      <c r="W18" s="8">
+        <v>166</v>
+      </c>
+      <c r="X18" s="8">
+        <v>345</v>
+      </c>
+      <c r="Y18" s="8">
+        <v>175</v>
+      </c>
+      <c r="Z18" s="8">
+        <v>133</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>239</v>
+      </c>
+      <c r="AB18" s="8">
+        <v>152</v>
+      </c>
+      <c r="AC18" s="8">
+        <v>263</v>
+      </c>
+      <c r="AD18" s="8">
+        <v>126</v>
+      </c>
+      <c r="AE18" s="8">
+        <v>174</v>
+      </c>
+      <c r="AF18" s="8">
+        <v>65</v>
+      </c>
+      <c r="AG18" s="8">
+        <v>265</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>245</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>117</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>13</v>
+      </c>
+      <c r="AK18" s="8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7896</v>
+      </c>
+      <c r="D19" s="7">
+        <v>181</v>
+      </c>
+      <c r="E19" s="7">
+        <v>97</v>
+      </c>
+      <c r="F19" s="7">
+        <v>67</v>
+      </c>
+      <c r="G19" s="7">
+        <v>70</v>
+      </c>
+      <c r="H19" s="7">
+        <v>273</v>
+      </c>
+      <c r="I19" s="7">
+        <v>50</v>
+      </c>
+      <c r="J19" s="7">
+        <v>203</v>
+      </c>
+      <c r="K19" s="7">
+        <v>541</v>
+      </c>
+      <c r="L19" s="7">
+        <v>450</v>
+      </c>
+      <c r="M19" s="7">
+        <v>115</v>
+      </c>
+      <c r="N19" s="7">
+        <v>501</v>
+      </c>
+      <c r="O19" s="7">
+        <v>47</v>
+      </c>
+      <c r="P19" s="7">
+        <v>132</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>655</v>
+      </c>
+      <c r="R19" s="7">
+        <v>832</v>
+      </c>
+      <c r="S19" s="7">
+        <v>375</v>
+      </c>
+      <c r="T19" s="7">
+        <v>106</v>
+      </c>
+      <c r="U19" s="7">
+        <v>91</v>
+      </c>
+      <c r="V19" s="7">
+        <v>351</v>
+      </c>
+      <c r="W19" s="7">
+        <v>214</v>
+      </c>
+      <c r="X19" s="7">
+        <v>336</v>
+      </c>
+      <c r="Y19" s="7">
+        <v>200</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>176</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>258</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>115</v>
+      </c>
+      <c r="AC19" s="7">
+        <v>304</v>
+      </c>
+      <c r="AD19" s="7">
+        <v>115</v>
+      </c>
+      <c r="AE19" s="7">
+        <v>164</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>52</v>
+      </c>
+      <c r="AG19" s="7">
+        <v>289</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>243</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>126</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>13</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="8">
         <v>8432</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D20" s="8">
         <v>174</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E20" s="8">
         <v>121</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F20" s="8">
         <v>58</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G20" s="8">
         <v>110</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H20" s="8">
         <v>293</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I20" s="8">
         <v>77</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J20" s="8">
         <v>245</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K20" s="8">
         <v>572</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L20" s="8">
         <v>352</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M20" s="8">
         <v>139</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N20" s="8">
         <v>449</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O20" s="8">
         <v>45</v>
       </c>
-      <c r="P18" s="8">
+      <c r="P20" s="8">
         <v>185</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q20" s="8">
         <v>728</v>
       </c>
-      <c r="R18" s="8">
+      <c r="R20" s="8">
         <v>936</v>
       </c>
-      <c r="S18" s="8">
+      <c r="S20" s="8">
         <v>330</v>
       </c>
-      <c r="T18" s="8">
+      <c r="T20" s="8">
         <v>158</v>
       </c>
-      <c r="U18" s="8">
+      <c r="U20" s="8">
         <v>92</v>
       </c>
-      <c r="V18" s="8">
+      <c r="V20" s="8">
         <v>400</v>
       </c>
-      <c r="W18" s="8">
+      <c r="W20" s="8">
         <v>189</v>
       </c>
-      <c r="X18" s="8">
+      <c r="X20" s="8">
         <v>359</v>
       </c>
-      <c r="Y18" s="8">
+      <c r="Y20" s="8">
         <v>232</v>
       </c>
-      <c r="Z18" s="8">
+      <c r="Z20" s="8">
         <v>167</v>
       </c>
-      <c r="AA18" s="8">
+      <c r="AA20" s="8">
         <v>282</v>
       </c>
-      <c r="AB18" s="8">
+      <c r="AB20" s="8">
         <v>171</v>
       </c>
-      <c r="AC18" s="8">
+      <c r="AC20" s="8">
         <v>328</v>
       </c>
-      <c r="AD18" s="8">
+      <c r="AD20" s="8">
         <v>110</v>
       </c>
-      <c r="AE18" s="8">
+      <c r="AE20" s="8">
         <v>202</v>
       </c>
-      <c r="AF18" s="8">
+      <c r="AF20" s="8">
         <v>61</v>
       </c>
-      <c r="AG18" s="8">
+      <c r="AG20" s="8">
         <v>253</v>
       </c>
-      <c r="AH18" s="8">
+      <c r="AH20" s="8">
         <v>340</v>
       </c>
-      <c r="AI18" s="8">
+      <c r="AI20" s="8">
         <v>130</v>
       </c>
-      <c r="AJ18" s="8">
+      <c r="AJ20" s="8">
         <v>20</v>
       </c>
-      <c r="AK18" s="8">
+      <c r="AK20" s="8">
         <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
+      <c r="A21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8239</v>
+      </c>
+      <c r="D21" s="7">
+        <v>155</v>
+      </c>
+      <c r="E21" s="7">
+        <v>95</v>
+      </c>
+      <c r="F21" s="7">
+        <v>67</v>
+      </c>
+      <c r="G21" s="7">
+        <v>92</v>
+      </c>
+      <c r="H21" s="7">
+        <v>302</v>
+      </c>
+      <c r="I21" s="7">
+        <v>60</v>
+      </c>
+      <c r="J21" s="7">
+        <v>265</v>
+      </c>
+      <c r="K21" s="7">
+        <v>528</v>
+      </c>
+      <c r="L21" s="7">
+        <v>277</v>
+      </c>
+      <c r="M21" s="7">
+        <v>153</v>
+      </c>
+      <c r="N21" s="7">
+        <v>495</v>
+      </c>
+      <c r="O21" s="7">
+        <v>88</v>
+      </c>
+      <c r="P21" s="7">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>656</v>
+      </c>
+      <c r="R21" s="7">
+        <v>987</v>
+      </c>
+      <c r="S21" s="7">
+        <v>293</v>
+      </c>
+      <c r="T21" s="7">
+        <v>138</v>
+      </c>
+      <c r="U21" s="7">
+        <v>142</v>
+      </c>
+      <c r="V21" s="7">
+        <v>424</v>
+      </c>
+      <c r="W21" s="7">
+        <v>166</v>
+      </c>
+      <c r="X21" s="7">
+        <v>289</v>
+      </c>
+      <c r="Y21" s="7">
+        <v>240</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>155</v>
+      </c>
+      <c r="AA21" s="7">
+        <v>270</v>
+      </c>
+      <c r="AB21" s="7">
+        <v>175</v>
+      </c>
+      <c r="AC21" s="7">
+        <v>279</v>
+      </c>
+      <c r="AD21" s="7">
+        <v>156</v>
+      </c>
+      <c r="AE21" s="7">
+        <v>217</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>72</v>
+      </c>
+      <c r="AG21" s="7">
+        <v>256</v>
+      </c>
+      <c r="AH21" s="7">
+        <v>366</v>
+      </c>
+      <c r="AI21" s="7">
+        <v>126</v>
+      </c>
+      <c r="AJ21" s="7">
+        <v>24</v>
+      </c>
+      <c r="AK21" s="7">
+        <v>108</v>
+      </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
+      <c r="A22" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="8">
+        <v>8837</v>
+      </c>
+      <c r="D22" s="8">
+        <v>151</v>
+      </c>
+      <c r="E22" s="8">
+        <v>191</v>
+      </c>
+      <c r="F22" s="8">
+        <v>70</v>
+      </c>
+      <c r="G22" s="8">
+        <v>96</v>
+      </c>
+      <c r="H22" s="8">
+        <v>313</v>
+      </c>
+      <c r="I22" s="8">
+        <v>50</v>
+      </c>
+      <c r="J22" s="8">
+        <v>243</v>
+      </c>
+      <c r="K22" s="8">
+        <v>554</v>
+      </c>
+      <c r="L22" s="8">
+        <v>326</v>
+      </c>
+      <c r="M22" s="8">
+        <v>167</v>
+      </c>
+      <c r="N22" s="8">
+        <v>543</v>
+      </c>
+      <c r="O22" s="8">
+        <v>73</v>
+      </c>
+      <c r="P22" s="8">
+        <v>204</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>635</v>
+      </c>
+      <c r="R22" s="8">
+        <v>1140</v>
+      </c>
+      <c r="S22" s="8">
+        <v>346</v>
+      </c>
+      <c r="T22" s="8">
+        <v>152</v>
+      </c>
+      <c r="U22" s="8">
+        <v>94</v>
+      </c>
+      <c r="V22" s="8">
+        <v>364</v>
+      </c>
+      <c r="W22" s="8">
+        <v>228</v>
+      </c>
+      <c r="X22" s="8">
+        <v>376</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>224</v>
+      </c>
+      <c r="Z22" s="8">
+        <v>184</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>242</v>
+      </c>
+      <c r="AB22" s="8">
+        <v>181</v>
+      </c>
+      <c r="AC22" s="8">
+        <v>272</v>
+      </c>
+      <c r="AD22" s="8">
+        <v>177</v>
+      </c>
+      <c r="AE22" s="8">
+        <v>210</v>
+      </c>
+      <c r="AF22" s="8">
+        <v>82</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>349</v>
+      </c>
+      <c r="AH22" s="8">
+        <v>341</v>
+      </c>
+      <c r="AI22" s="8">
+        <v>110</v>
+      </c>
+      <c r="AJ22" s="8">
+        <v>29</v>
+      </c>
+      <c r="AK22" s="8">
+        <v>120</v>
+      </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
+      <c r="A25" s="9" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
+      <c r="A35" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C5:AK5"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+  <mergeCells count="2">
+    <mergeCell ref="C7:AK7"/>
+    <mergeCell ref="A9:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
